--- a/biology/Médecine/Florian_Delbarre/Florian_Delbarre.xlsx
+++ b/biology/Médecine/Florian_Delbarre/Florian_Delbarre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florian Delbarre, né le 7 septembre 1918 à Paris et mort le 16 septembre 1981 à Suresnes[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florian Delbarre, né le 7 septembre 1918 à Paris et mort le 16 septembre 1981 à Suresnes, est un médecin français.
 Docteur en médecine, il fut président de l’université Paris-Descartes et doyen de la faculté de médecine de Paris. Il a également été conseiller de Paris, de 1977 à 1981.
 Époux en premières noces, avec postérité, de Véra Fokerman, époux en secondes noces, sans postérité, de Jeanne Joséphine Dacheux (de Saint-Maixent).
 Une rue du 15e arrondissement de Paris, la rue du Professeur-Florian-Delbarre, située au sud de l’hôpital européen Georges-Pompidou, a été nommée en son honneur (arrêté municipal du 31 janvier 1994).
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fonctions universitaires
-Études au lycée Michelet, à la Sorbonne et à la faculté de médecine de Paris,
+          <t>Fonctions universitaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Études au lycée Michelet, à la Sorbonne et à la faculté de médecine de Paris,
 Préparateur dans la Chaire de biochimie médicale, 1946-1949
 Assistant dans la Chaire de biochimie médicale clinique de Rhumatologie, 1949-1954
 Chef de laboratoire à la faculté de médecine de PARIS (Chaire de clinique de Rhumatologie), 1949-1952
@@ -530,15 +547,83 @@
 Professeur de clinique de rhumatologie médicale et sociale, 1967
 Doyen de la faculté de médecine de Cochin, 1969-1976
 Vice-président de l'Université Paris Descartes, 1972-1976
-Président de l'Université Paris Descartes, 1976-1981
-Fonctions hospitalières
-Interne des hôpitaux de Paris, 1943
+Président de l'Université Paris Descartes, 1976-1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fonctions hospitalières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Interne des hôpitaux de Paris, 1943
 Interne Médaille d'Or, 1948-1949
 Médecin-assistant des Hôpitaux de Paris, 1954
 Médecin des Hôpitaux de Paris, 1955
-Chef du service de rhumatologie de l'Hôpital Cochin, 1967
-Fonctions dans la recherche
-Préparateur puis assistant dans la Chaire de biochimie médicale, 1944-1954 (Recherches sur la maladie phénylpyruvique et sur les dysprotéinémies type Kahler)
+Chef du service de rhumatologie de l'Hôpital Cochin, 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fonctions dans la recherche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Préparateur puis assistant dans la Chaire de biochimie médicale, 1944-1954 (Recherches sur la maladie phénylpyruvique et sur les dysprotéinémies type Kahler)
 Chef de laboratoire à la Faculté de médecine de Paris puis à la Chaire de Clinique de Rhumatologie(études sur la pathogénie des rhumatismes inflammatoires et métaboliques)
 Directeur de l'unité de recherches INSERM no 5 depuis 1961
 Membre de la commission scientifique de l'INSERM No 5 (néphrologie, maladies articulaires, etc.)
@@ -546,9 +631,43 @@
 Membre de la commission No 24 du CNRS 1966-1970 (pathologie expérimentale et thérapeutique)
 Président de la commission No 24 du CNRS, 1970-1974
 Membre du Directoire du CNRS depuis 1974
-Directeur du Centre de références OMS sur les critères des maladies du tissu conjonctif depuis 1972
-Fonctions et actions internationales
-Membre de la commission franco-québécoise d'échanges scientifiques et médicaux
+Directeur du Centre de références OMS sur les critères des maladies du tissu conjonctif depuis 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fonctions et actions internationales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Membre de la commission franco-québécoise d'échanges scientifiques et médicaux
 Membre de la commission franco-soviétique d'échanges scientifiques et médicaux
 Expert, pour les maladies rhumatismales, auprès du Directeur général de l'OMS	depuis 1962
 Membre du conseil de la ligue européenne contre le rhumatisme, 1967-1973
@@ -579,9 +698,43 @@
 Coprésident et organisateur de la IIe réunion franco-soviétique, Paris 1977
 Mission (ministère des Affaires étrangères) pour étudier les possibilités de collaboration dans le domaine de l'enseignement et de la recherche médicale, Istamboul-Ankara 1977
 Coprésident du 1er symposium franco-allemand de rhumatologie (le syndrome de Fiessinger-Leroy-Reiter) Strasbourg 1977
-Mission (ministère des Affaires étrangères) cycle de conférences aux universités d'Osaka et de Nagoya, Japon 1977
-Autres fonctions
-Conseiller technique à la direction des enseignements supérieurs au ministère de l'éducation nationale, 1970-1972
+Mission (ministère des Affaires étrangères) cycle de conférences aux universités d'Osaka et de Nagoya, Japon 1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres fonctions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conseiller technique à la direction des enseignements supérieurs au ministère de l'éducation nationale, 1970-1972
 Président du groupe inter-ministériel d'études sur l'enseignement de l'économie médicale, 1972-1974
 Membre du haut comité médical auprès du ministre de la santé, JO du 21/10/1971
 Président du groupe d'études sur les maladies rhumatismales créé par le ministère de la santé, 1970
@@ -595,42 +748,81 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Florian_Delbarre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Membre de sociétés scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sociétés scientifiques françaises
-Membre de la société médicale des hôpitaux de Paris depuis 1975
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sociétés scientifiques françaises</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Membre de la société médicale des hôpitaux de Paris depuis 1975
 Membre de la société de biologie
 Membre de la société française de Rhumatologie (président en 1967-69, puis président d'honneur)
 Membre du conseil d'administration de la société française de rhumatologie
 Secrétaire général de la section sociale de la ligue française contre le rhumatisme, 1960-1970
 Membre fondateur de l'association française de lutte contre les maladies rhumatismales, 1971
-Président du conseil d'administration de l'association Claude-Bernard, 1977
-Sociétés scientifiques et médicales étrangères
-Membre d'honneur des sociétés équatorienne de rhumatologie (1962), Colombienne (1962), Uruguayenne (1963), et Suisse (1967), de la société de rhumatologie de République fédérale d'Allemagne (1968), de Tchécoslovaquie (1969), d'Autriche, du Luxembourg et de Finlande (1969), de la société espagnole (1970), et de l'union des républiques soviétiques (1971), du Chili (1972), du Japon (1973), du Portugal, du Brésil, et de la Belgique (1973), de la société italienne et de Tunisie (1973).
+Président du conseil d'administration de l'association Claude-Bernard, 1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Membre de sociétés scientifiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sociétés scientifiques et médicales étrangères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Membre d'honneur des sociétés équatorienne de rhumatologie (1962), Colombienne (1962), Uruguayenne (1963), et Suisse (1967), de la société de rhumatologie de République fédérale d'Allemagne (1968), de Tchécoslovaquie (1969), d'Autriche, du Luxembourg et de Finlande (1969), de la société espagnole (1970), et de l'union des républiques soviétiques (1971), du Chili (1972), du Japon (1973), du Portugal, du Brésil, et de la Belgique (1973), de la société italienne et de Tunisie (1973).
 Membre d'honneur de la société médico-chirurgicale de la république d'Équateur, 1962
 Membre de l'American Rheumatism Association, 1968
 Membre de la société de médecine de Cordoba (Argentine)
@@ -640,31 +832,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Florian_Delbarre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Officier de la Légion d’honneur,	1976
 Commandeur de l'ordre national du Mérite,	1978
@@ -688,34 +882,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Florian_Delbarre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Livres
-Florian Delbarre, L'insuffisance alimentaire, 1950.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Florian Delbarre, L'insuffisance alimentaire, 1950.
 Florian Delbarre, André Lemaire et Jean-Pierre Michard, Les Stimulines Hypophysaires, 1951.
 Florian Delbarre, Cortisone et cortico-stimuline en rhumatologie, 1952.
 Florian Delbarre, Collaboration au traité de pathologie chimique (professeur Polonovski), 1952.
@@ -732,9 +931,43 @@
 Florian Delbarre, Collaboration au traité d'immunologie, 1973.
 Florian Delbarre, Rheumatism, 1973.
 Florian Delbarre, Behandlung der gicht, 1974.
-Florian Delbarre, Immunopathologie Osteo-articulaire, Paris/New York/Barcelone, Masson, 1983, 306 p. (ISBN 2225780781).
-Périodiques
-Membre de l'éditorial Board of rheumatology (Basel, München, New-York)
+Florian Delbarre, Immunopathologie Osteo-articulaire, Paris/New York/Barcelone, Masson, 1983, 306 p. (ISBN 2225780781).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florian_Delbarre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Périodiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Membre de l'éditorial Board of rheumatology (Basel, München, New-York)
 Corédacteur de "Rhumatologie européenne", 1957-1960
 Fondateur et rédacteur en chef de "R" (revue internationale de rhumatologie) trilingue (français, espagnol, anglais) parution régulière depuis 1971 (7 tomes)</t>
         </is>
